--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,11 +629,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10465</v>
+        <v>11362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09 17:43:07</t>
+          <t>2025-02-09 14:01:57</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,21 +648,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Другое</t>
+          <t>Фриланс</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1654</v>
+        <v>2127</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6314</v>
+        <v>10465</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-10 02:23:53</t>
+          <t>2025-02-09 17:43:07</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,25 +677,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Подарки</t>
+          <t>Другое</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>205</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Комментарий к транзакции</t>
-        </is>
-      </c>
+        <v>1654</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28</v>
+        <v>6314</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-11 00:00:00</t>
+          <t>2025-02-10 02:23:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -710,11 +706,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Инвестиции</t>
+          <t>Подарки</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7163</v>
+        <v>205</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -724,11 +720,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7026</v>
+        <v>18113</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-15 04:04:29</t>
+          <t>2025-02-10 09:20:18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,21 +739,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Инвестиции</t>
+          <t>Подарки</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5811</v>
+        <v>8561</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4216</v>
+        <v>18819</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-16 15:00:32</t>
+          <t>2025-02-10 10:11:41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -772,11 +768,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Фриланс</t>
+          <t>Другое</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>634</v>
+        <v>2776</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -786,11 +782,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2569</v>
+        <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-17 11:16:58</t>
+          <t>2025-02-11 00:00:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,11 +801,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Зарплата</t>
+          <t>Инвестиции</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8039</v>
+        <v>7163</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -819,11 +815,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8922</v>
+        <v>12301</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-18 00:55:53</t>
+          <t>2025-02-14 21:43:26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -838,21 +834,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Фриланс</t>
+          <t>Другое</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3189</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>1771</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Комментарий к транзакции</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4928</v>
+        <v>7026</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-02-19 00:51:00</t>
+          <t>2025-02-15 04:04:29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,25 +867,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Зарплата</t>
+          <t>Инвестиции</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3427</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Комментарий к транзакции</t>
-        </is>
-      </c>
+        <v>5811</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9170</v>
+        <v>4216</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-19 21:55:56</t>
+          <t>2025-02-16 15:00:32</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -900,11 +896,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Другое</t>
+          <t>Фриланс</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1551</v>
+        <v>634</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -914,11 +910,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>382</v>
+        <v>2569</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-02-21 08:57:21</t>
+          <t>2025-02-17 11:16:58</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -937,7 +933,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1817</v>
+        <v>8039</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -947,11 +943,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8428</v>
+        <v>19193</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-02-21 20:03:55</t>
+          <t>2025-02-17 16:36:01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -966,21 +962,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Инвестиции</t>
+          <t>Зарплата</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8486</v>
+        <v>880</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8587</v>
+        <v>8922</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-02-21 22:20:58</t>
+          <t>2025-02-18 00:55:53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,21 +991,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Инвестиции</t>
+          <t>Фриланс</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2861</v>
+        <v>3189</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3791</v>
+        <v>11966</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-02-22 22:27:28</t>
+          <t>2025-02-18 21:47:20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1024,11 +1020,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Зарплата</t>
+          <t>Фриланс</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8156</v>
+        <v>5996</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1038,36 +1034,379 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>4928</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-02-19 00:51:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Зарплата</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3427</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Комментарий к транзакции</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12219</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:44:37</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Инвестиции</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>8587</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Комментарий к транзакции</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9170</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-02-19 21:55:56</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Другое</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1551</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Комментарий к транзакции</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20468</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-02-20 12:23:22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Инвестиции</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1475</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>382</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-02-21 08:57:21</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Зарплата</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1817</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Комментарий к транзакции</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8428</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-02-21 20:03:55</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Инвестиции</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>8486</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8587</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:58</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Инвестиции</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2861</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>15772</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-02-22 05:51:52</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Фриланс</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>6049</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Комментарий к транзакции</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3791</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:27:28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Зарплата</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>8156</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Комментарий к транзакции</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>11090</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>2025-02-24 14:07:41</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>LandoCalrissian</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Доход</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Подарки</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F29" t="n">
         <v>9237</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Комментарий к транзакции</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Комментарий к транзакции</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21107</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-02-24 17:54:28</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Другое</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3672</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>13610</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-02-25 09:56:41</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LandoCalrissian</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Доход</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Фриланс</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2941</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
